--- a/templete_cell.xlsx
+++ b/templete_cell.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/825001cea514323d/デスクトップ/WorkTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{1539A518-3B3A-41CA-BFC9-53AEF2433A86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6F93A84F-7058-47CC-9E81-C983B829281E}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{1539A518-3B3A-41CA-BFC9-53AEF2433A86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0B75B6E0-5109-42FB-AA33-EC54D6434007}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="885" windowWidth="11932" windowHeight="12195" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7845" yWindow="503" windowWidth="11933" windowHeight="12194" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -98,9 +98,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -403,23 +409,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E35"/>
+  <dimension ref="A2:E66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.06640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
@@ -438,282 +444,438 @@
       <c r="A5" s="1">
         <v>44013</v>
       </c>
-      <c r="B5" t="str">
+      <c r="B5" s="2" t="str">
         <f>TEXT(A5,("aaa"))</f>
         <v>水</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>44014</v>
-      </c>
-      <c r="B6" t="str">
-        <f t="shared" ref="B6:B35" si="0">TEXT(A6,("aaa"))</f>
-        <v>木</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>44015</v>
-      </c>
-      <c r="B7" t="str">
-        <f t="shared" si="0"/>
-        <v>金</v>
+        <v>44014</v>
+      </c>
+      <c r="B7" s="2" t="str">
+        <f t="shared" ref="B7:B65" si="0">TEXT(A7,("aaa"))</f>
+        <v>木</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>44016</v>
-      </c>
-      <c r="B8" t="str">
-        <f t="shared" si="0"/>
-        <v>土</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>44017</v>
-      </c>
-      <c r="B9" t="str">
-        <f t="shared" si="0"/>
-        <v>日</v>
+        <v>44015</v>
+      </c>
+      <c r="B9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>金</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>44018</v>
-      </c>
-      <c r="B10" t="str">
-        <f t="shared" si="0"/>
-        <v>月</v>
-      </c>
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>44019</v>
-      </c>
-      <c r="B11" t="str">
-        <f t="shared" si="0"/>
-        <v>火</v>
+        <v>44016</v>
+      </c>
+      <c r="B11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>土</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>44020</v>
-      </c>
-      <c r="B12" t="str">
-        <f t="shared" si="0"/>
-        <v>水</v>
-      </c>
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>44021</v>
-      </c>
-      <c r="B13" t="str">
-        <f t="shared" si="0"/>
-        <v>木</v>
+        <v>44017</v>
+      </c>
+      <c r="B13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>日</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>44022</v>
-      </c>
-      <c r="B14" t="str">
-        <f t="shared" si="0"/>
-        <v>金</v>
-      </c>
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>44023</v>
-      </c>
-      <c r="B15" t="str">
-        <f t="shared" si="0"/>
-        <v>土</v>
+        <v>44018</v>
+      </c>
+      <c r="B15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>月</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>44024</v>
-      </c>
-      <c r="B16" t="str">
-        <f t="shared" si="0"/>
-        <v>日</v>
-      </c>
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>44025</v>
-      </c>
-      <c r="B17" t="str">
-        <f t="shared" si="0"/>
-        <v>月</v>
+        <v>44019</v>
+      </c>
+      <c r="B17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>火</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>44026</v>
-      </c>
-      <c r="B18" t="str">
-        <f t="shared" si="0"/>
-        <v>火</v>
-      </c>
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>44027</v>
-      </c>
-      <c r="B19" t="str">
+        <v>44020</v>
+      </c>
+      <c r="B19" s="2" t="str">
         <f t="shared" si="0"/>
         <v>水</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>44028</v>
-      </c>
-      <c r="B20" t="str">
-        <f t="shared" si="0"/>
-        <v>木</v>
-      </c>
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>44029</v>
-      </c>
-      <c r="B21" t="str">
-        <f t="shared" si="0"/>
-        <v>金</v>
+        <v>44021</v>
+      </c>
+      <c r="B21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>木</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>44030</v>
-      </c>
-      <c r="B22" t="str">
-        <f t="shared" si="0"/>
-        <v>土</v>
-      </c>
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>44031</v>
-      </c>
-      <c r="B23" t="str">
-        <f t="shared" si="0"/>
-        <v>日</v>
+        <v>44022</v>
+      </c>
+      <c r="B23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>金</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>44032</v>
-      </c>
-      <c r="B24" t="str">
-        <f t="shared" si="0"/>
-        <v>月</v>
-      </c>
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>44033</v>
-      </c>
-      <c r="B25" t="str">
-        <f t="shared" si="0"/>
-        <v>火</v>
+        <v>44023</v>
+      </c>
+      <c r="B25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>土</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>44034</v>
-      </c>
-      <c r="B26" t="str">
-        <f t="shared" si="0"/>
-        <v>水</v>
-      </c>
+      <c r="A26" s="1"/>
+      <c r="B26" s="2"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>44035</v>
-      </c>
-      <c r="B27" t="str">
-        <f t="shared" si="0"/>
-        <v>木</v>
+        <v>44024</v>
+      </c>
+      <c r="B27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>日</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>44036</v>
-      </c>
-      <c r="B28" t="str">
-        <f t="shared" si="0"/>
-        <v>金</v>
-      </c>
+      <c r="A28" s="1"/>
+      <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>44037</v>
-      </c>
-      <c r="B29" t="str">
-        <f t="shared" si="0"/>
-        <v>土</v>
+        <v>44025</v>
+      </c>
+      <c r="B29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>月</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>44038</v>
-      </c>
-      <c r="B30" t="str">
-        <f t="shared" si="0"/>
-        <v>日</v>
-      </c>
+      <c r="A30" s="1"/>
+      <c r="B30" s="2"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>44039</v>
-      </c>
-      <c r="B31" t="str">
-        <f t="shared" si="0"/>
-        <v>月</v>
+        <v>44026</v>
+      </c>
+      <c r="B31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>火</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>44040</v>
-      </c>
-      <c r="B32" t="str">
-        <f t="shared" si="0"/>
-        <v>火</v>
-      </c>
+      <c r="A32" s="1"/>
+      <c r="B32" s="2"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
-        <v>44041</v>
-      </c>
-      <c r="B33" t="str">
+        <v>44027</v>
+      </c>
+      <c r="B33" s="2" t="str">
         <f t="shared" si="0"/>
         <v>水</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>44042</v>
-      </c>
-      <c r="B34" t="str">
-        <f t="shared" si="0"/>
-        <v>木</v>
-      </c>
+      <c r="A34" s="1"/>
+      <c r="B34" s="2"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
+        <v>44028</v>
+      </c>
+      <c r="B35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>木</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>44029</v>
+      </c>
+      <c r="B37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>金</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>44030</v>
+      </c>
+      <c r="B39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>土</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>44031</v>
+      </c>
+      <c r="B41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>日</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>44032</v>
+      </c>
+      <c r="B43" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>月</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44033</v>
+      </c>
+      <c r="B45" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>火</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>44034</v>
+      </c>
+      <c r="B47" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>水</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>44035</v>
+      </c>
+      <c r="B49" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>木</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>44036</v>
+      </c>
+      <c r="B51" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>金</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>44037</v>
+      </c>
+      <c r="B53" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>土</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>44038</v>
+      </c>
+      <c r="B55" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>日</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>44039</v>
+      </c>
+      <c r="B57" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>月</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>44040</v>
+      </c>
+      <c r="B59" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>火</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="B60" s="2"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>44041</v>
+      </c>
+      <c r="B61" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>水</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="B62" s="2"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>44042</v>
+      </c>
+      <c r="B63" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>木</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="B64" s="2"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
         <v>44043</v>
       </c>
-      <c r="B35" t="str">
+      <c r="B65" s="2" t="str">
         <f t="shared" si="0"/>
         <v>金</v>
       </c>
     </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B66" s="2"/>
+    </row>
   </sheetData>
+  <mergeCells count="31">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B19:B20"/>
+  </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/templete_cell.xlsx
+++ b/templete_cell.xlsx
@@ -1,34 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/825001cea514323d/デスクトップ/WorkTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{1539A518-3B3A-41CA-BFC9-53AEF2433A86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{0B75B6E0-5109-42FB-AA33-EC54D6434007}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{1539A518-3B3A-41CA-BFC9-53AEF2433A86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{65D15C17-113B-40CC-997E-D723366C7BB6}"/>
   <bookViews>
-    <workbookView xWindow="7845" yWindow="503" windowWidth="11933" windowHeight="12194" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="525" yWindow="413" windowWidth="11933" windowHeight="12194" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>月</t>
     <rPh sb="0" eb="1">
@@ -55,6 +47,10 @@
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -102,10 +98,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -409,23 +405,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E66"/>
+  <dimension ref="A2:E68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.06640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>7</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -444,406 +438,430 @@
       <c r="A5" s="1">
         <v>44013</v>
       </c>
-      <c r="B5" s="2" t="str">
+      <c r="B5" s="3" t="str">
         <f>TEXT(A5,("aaa"))</f>
         <v>水</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
+      <c r="B6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44014</v>
       </c>
-      <c r="B7" s="2" t="str">
+      <c r="B7" s="3" t="str">
         <f t="shared" ref="B7:B65" si="0">TEXT(A7,("aaa"))</f>
         <v>木</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
+      <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44015</v>
       </c>
-      <c r="B9" s="2" t="str">
+      <c r="B9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>金</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
+      <c r="B10" s="3"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44016</v>
       </c>
-      <c r="B11" s="2" t="str">
+      <c r="B11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>土</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
+      <c r="B12" s="3"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44017</v>
       </c>
-      <c r="B13" s="2" t="str">
+      <c r="B13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>日</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
+      <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44018</v>
       </c>
-      <c r="B15" s="2" t="str">
+      <c r="B15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>月</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
+      <c r="B16" s="3"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>44019</v>
       </c>
-      <c r="B17" s="2" t="str">
+      <c r="B17" s="3" t="str">
         <f t="shared" si="0"/>
         <v>火</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
+      <c r="B18" s="3"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>44020</v>
       </c>
-      <c r="B19" s="2" t="str">
+      <c r="B19" s="3" t="str">
         <f t="shared" si="0"/>
         <v>水</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
+      <c r="B20" s="3"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>44021</v>
       </c>
-      <c r="B21" s="2" t="str">
+      <c r="B21" s="3" t="str">
         <f t="shared" si="0"/>
         <v>木</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
+      <c r="B22" s="3"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>44022</v>
       </c>
-      <c r="B23" s="2" t="str">
+      <c r="B23" s="3" t="str">
         <f t="shared" si="0"/>
         <v>金</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
+      <c r="B24" s="3"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>44023</v>
       </c>
-      <c r="B25" s="2" t="str">
+      <c r="B25" s="3" t="str">
         <f t="shared" si="0"/>
         <v>土</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="2"/>
+      <c r="B26" s="3"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>44024</v>
       </c>
-      <c r="B27" s="2" t="str">
+      <c r="B27" s="3" t="str">
         <f t="shared" si="0"/>
         <v>日</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
-      <c r="B28" s="2"/>
+      <c r="B28" s="3"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>44025</v>
       </c>
-      <c r="B29" s="2" t="str">
+      <c r="B29" s="3" t="str">
         <f t="shared" si="0"/>
         <v>月</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
-      <c r="B30" s="2"/>
+      <c r="B30" s="3"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>44026</v>
       </c>
-      <c r="B31" s="2" t="str">
+      <c r="B31" s="3" t="str">
         <f t="shared" si="0"/>
         <v>火</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
-      <c r="B32" s="2"/>
+      <c r="B32" s="3"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>44027</v>
       </c>
-      <c r="B33" s="2" t="str">
+      <c r="B33" s="3" t="str">
         <f t="shared" si="0"/>
         <v>水</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
-      <c r="B34" s="2"/>
+      <c r="B34" s="3"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>44028</v>
       </c>
-      <c r="B35" s="2" t="str">
+      <c r="B35" s="3" t="str">
         <f t="shared" si="0"/>
         <v>木</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
-      <c r="B36" s="2"/>
+      <c r="B36" s="3"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>44029</v>
       </c>
-      <c r="B37" s="2" t="str">
+      <c r="B37" s="3" t="str">
         <f t="shared" si="0"/>
         <v>金</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="2"/>
+      <c r="B38" s="3"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>44030</v>
       </c>
-      <c r="B39" s="2" t="str">
+      <c r="B39" s="3" t="str">
         <f t="shared" si="0"/>
         <v>土</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
-      <c r="B40" s="2"/>
+      <c r="B40" s="3"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>44031</v>
       </c>
-      <c r="B41" s="2" t="str">
+      <c r="B41" s="3" t="str">
         <f t="shared" si="0"/>
         <v>日</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
-      <c r="B42" s="2"/>
+      <c r="B42" s="3"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>44032</v>
       </c>
-      <c r="B43" s="2" t="str">
+      <c r="B43" s="3" t="str">
         <f t="shared" si="0"/>
         <v>月</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
-      <c r="B44" s="2"/>
+      <c r="B44" s="3"/>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44033</v>
       </c>
-      <c r="B45" s="2" t="str">
+      <c r="B45" s="3" t="str">
         <f t="shared" si="0"/>
         <v>火</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
-      <c r="B46" s="2"/>
+      <c r="B46" s="3"/>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>44034</v>
       </c>
-      <c r="B47" s="2" t="str">
+      <c r="B47" s="3" t="str">
         <f t="shared" si="0"/>
         <v>水</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
-      <c r="B48" s="2"/>
+      <c r="B48" s="3"/>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>44035</v>
       </c>
-      <c r="B49" s="2" t="str">
+      <c r="B49" s="3" t="str">
         <f t="shared" si="0"/>
         <v>木</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
-      <c r="B50" s="2"/>
+      <c r="B50" s="3"/>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>44036</v>
       </c>
-      <c r="B51" s="2" t="str">
+      <c r="B51" s="3" t="str">
         <f t="shared" si="0"/>
         <v>金</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="1"/>
-      <c r="B52" s="2"/>
+      <c r="B52" s="3"/>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>44037</v>
       </c>
-      <c r="B53" s="2" t="str">
+      <c r="B53" s="3" t="str">
         <f t="shared" si="0"/>
         <v>土</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="1"/>
-      <c r="B54" s="2"/>
+      <c r="B54" s="3"/>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>44038</v>
       </c>
-      <c r="B55" s="2" t="str">
+      <c r="B55" s="3" t="str">
         <f t="shared" si="0"/>
         <v>日</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="1"/>
-      <c r="B56" s="2"/>
+      <c r="B56" s="3"/>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>44039</v>
       </c>
-      <c r="B57" s="2" t="str">
+      <c r="B57" s="3" t="str">
         <f t="shared" si="0"/>
         <v>月</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="1"/>
-      <c r="B58" s="2"/>
+      <c r="B58" s="3"/>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>44040</v>
       </c>
-      <c r="B59" s="2" t="str">
+      <c r="B59" s="3" t="str">
         <f t="shared" si="0"/>
         <v>火</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
-      <c r="B60" s="2"/>
+      <c r="B60" s="3"/>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>44041</v>
       </c>
-      <c r="B61" s="2" t="str">
+      <c r="B61" s="3" t="str">
         <f t="shared" si="0"/>
         <v>水</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1"/>
-      <c r="B62" s="2"/>
+      <c r="B62" s="3"/>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>44042</v>
       </c>
-      <c r="B63" s="2" t="str">
+      <c r="B63" s="3" t="str">
         <f t="shared" si="0"/>
         <v>木</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="1"/>
-      <c r="B64" s="2"/>
+      <c r="B64" s="3"/>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>44043</v>
       </c>
-      <c r="B65" s="2" t="str">
+      <c r="B65" s="3" t="str">
         <f t="shared" si="0"/>
         <v>金</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="2"/>
+      <c r="B66" s="3"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B67" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B68" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="32">
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="B33:B34"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="B65:B66"/>
     <mergeCell ref="B63:B64"/>
@@ -860,21 +878,6 @@
     <mergeCell ref="B51:B52"/>
     <mergeCell ref="B31:B32"/>
     <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="B19:B20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/templete_cell.xlsx
+++ b/templete_cell.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/825001cea514323d/デスクトップ/WorkTable/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="13_ncr:1_{1539A518-3B3A-41CA-BFC9-53AEF2433A86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{65D15C17-113B-40CC-997E-D723366C7BB6}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{1539A518-3B3A-41CA-BFC9-53AEF2433A86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C8A42C09-989B-4FB7-BE41-920BFAAEA034}"/>
   <bookViews>
     <workbookView xWindow="525" yWindow="413" windowWidth="11933" windowHeight="12194" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>月</t>
     <rPh sb="0" eb="1">
@@ -51,6 +51,14 @@
   </si>
   <si>
     <t>*</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yaku</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -405,9 +413,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E68"/>
+  <dimension ref="A2:I68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
@@ -415,15 +425,21 @@
     <col min="2" max="2" width="3" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
         <v>3</v>
       </c>
@@ -434,7 +450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44013</v>
       </c>
@@ -443,11 +459,11 @@
         <v>水</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44014</v>
       </c>
@@ -456,11 +472,11 @@
         <v>木</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44015</v>
       </c>
@@ -469,11 +485,11 @@
         <v>金</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44016</v>
       </c>
@@ -482,11 +498,11 @@
         <v>土</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44017</v>
       </c>
@@ -495,11 +511,11 @@
         <v>日</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44018</v>
       </c>
@@ -508,7 +524,7 @@
         <v>月</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="3"/>
     </row>
@@ -846,6 +862,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B29:B30"/>
     <mergeCell ref="B67:B68"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B14"/>
@@ -862,22 +894,6 @@
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="B35:B36"/>
     <mergeCell ref="B33:B34"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B29:B30"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
